--- a/origin data.xlsx
+++ b/origin data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\小论文\environmental behavioral ability调节变量的小论文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\小论文\environmental behavioral ability调节变量的小论文\投稿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16570AC-FE48-404D-9097-91642E04C534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF511FFC-B80E-47FB-B981-2BE65781DDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,51 +120,6 @@
     <t>EM18</t>
   </si>
   <si>
-    <t>EBA1</t>
-  </si>
-  <si>
-    <t>EBA2</t>
-  </si>
-  <si>
-    <t>EBA3</t>
-  </si>
-  <si>
-    <t>EBA4</t>
-  </si>
-  <si>
-    <t>EBA5</t>
-  </si>
-  <si>
-    <t>EBA6</t>
-  </si>
-  <si>
-    <t>EBA7</t>
-  </si>
-  <si>
-    <t>EBA8</t>
-  </si>
-  <si>
-    <t>EBA9</t>
-  </si>
-  <si>
-    <t>EBA10</t>
-  </si>
-  <si>
-    <t>EBA11</t>
-  </si>
-  <si>
-    <t>GC1</t>
-  </si>
-  <si>
-    <t>GC2</t>
-  </si>
-  <si>
-    <t>GC3</t>
-  </si>
-  <si>
-    <t>GC4</t>
-  </si>
-  <si>
     <t>北京</t>
   </si>
   <si>
@@ -191,12 +146,72 @@
   <si>
     <t>成都</t>
   </si>
+  <si>
+    <t>GCI1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCI2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCI3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCI4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBC5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBC7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBC9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBC10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBC11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +222,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -231,8 +254,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU604"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AS20" sqref="AS20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -645,50 +669,50 @@
       <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
@@ -696,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -839,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -982,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1125,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1268,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1411,7 +1435,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1554,7 +1578,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1697,7 +1721,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1840,7 +1864,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1983,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2126,7 +2150,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -2269,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -2412,7 +2436,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2555,7 +2579,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -2698,7 +2722,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -2841,7 +2865,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -2984,7 +3008,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -3127,7 +3151,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -3270,7 +3294,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -3413,7 +3437,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -3556,7 +3580,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -3699,7 +3723,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -3842,7 +3866,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -3985,7 +4009,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -4128,7 +4152,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -4271,7 +4295,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -4414,7 +4438,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -4557,7 +4581,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -4700,7 +4724,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -4843,7 +4867,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -4986,7 +5010,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -5129,7 +5153,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -5272,7 +5296,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -5415,7 +5439,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -5558,7 +5582,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -5701,7 +5725,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -5844,7 +5868,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -5987,7 +6011,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -6130,7 +6154,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -6273,7 +6297,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -6416,7 +6440,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C42">
         <v>8</v>
@@ -6559,7 +6583,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -6702,7 +6726,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -6845,7 +6869,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -6988,7 +7012,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -7131,7 +7155,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C47">
         <v>9</v>
@@ -7274,7 +7298,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C48">
         <v>9</v>
@@ -7417,7 +7441,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -7560,7 +7584,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -7703,7 +7727,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -7846,7 +7870,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -7989,7 +8013,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -8132,7 +8156,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -8275,7 +8299,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -8418,7 +8442,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -8561,7 +8585,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -8704,7 +8728,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -8847,7 +8871,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -8990,7 +9014,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C60">
         <v>7</v>
@@ -9133,7 +9157,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -9276,7 +9300,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -9419,7 +9443,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -9562,7 +9586,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -9705,7 +9729,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -9848,7 +9872,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C66">
         <v>8</v>
@@ -9991,7 +10015,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -10134,7 +10158,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -10277,7 +10301,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C69">
         <v>7</v>
@@ -10420,7 +10444,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -10563,7 +10587,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -10706,7 +10730,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -10849,7 +10873,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -10992,7 +11016,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C74">
         <v>7</v>
@@ -11135,7 +11159,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C75">
         <v>7</v>
@@ -11278,7 +11302,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C76">
         <v>7</v>
@@ -11421,7 +11445,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -11564,7 +11588,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -11707,7 +11731,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -11850,7 +11874,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -11993,7 +12017,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C81">
         <v>7</v>
@@ -12136,7 +12160,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -12279,7 +12303,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -12422,7 +12446,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -12565,7 +12589,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C85">
         <v>7</v>
@@ -12708,7 +12732,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C86">
         <v>9</v>
@@ -12851,7 +12875,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C87">
         <v>9</v>
@@ -12994,7 +13018,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -13137,7 +13161,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -13280,7 +13304,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C90">
         <v>8</v>
@@ -13423,7 +13447,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C91">
         <v>7</v>
@@ -13566,7 +13590,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C92">
         <v>7</v>
@@ -13709,7 +13733,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -13852,7 +13876,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -13995,7 +14019,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -14138,7 +14162,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -14281,7 +14305,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -14424,7 +14448,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C98">
         <v>5</v>
@@ -14567,7 +14591,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C99">
         <v>6</v>
@@ -14710,7 +14734,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C100">
         <v>6</v>
@@ -14853,7 +14877,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -14996,7 +15020,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C102">
         <v>8</v>
@@ -15139,7 +15163,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -15282,7 +15306,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -15425,7 +15449,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -15568,7 +15592,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -15711,7 +15735,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -15854,7 +15878,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C108">
         <v>7</v>
@@ -15997,7 +16021,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -16140,7 +16164,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C110">
         <v>8</v>
@@ -16283,7 +16307,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -16426,7 +16450,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -16569,7 +16593,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -16712,7 +16736,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C114">
         <v>7</v>
@@ -16855,7 +16879,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C115">
         <v>5</v>
@@ -16998,7 +17022,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C116">
         <v>6</v>
@@ -17141,7 +17165,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -17284,7 +17308,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C118">
         <v>8</v>
@@ -17427,7 +17451,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -17570,7 +17594,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -17713,7 +17737,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C121">
         <v>9</v>
@@ -17856,7 +17880,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C122">
         <v>8</v>
@@ -17999,7 +18023,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -18142,7 +18166,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C124">
         <v>6</v>
@@ -18285,7 +18309,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -18428,7 +18452,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -18571,7 +18595,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C127">
         <v>3</v>
@@ -18714,7 +18738,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -18857,7 +18881,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -19000,7 +19024,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C130">
         <v>8</v>
@@ -19143,7 +19167,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C131">
         <v>8</v>
@@ -19286,7 +19310,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C132">
         <v>7</v>
@@ -19429,7 +19453,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -19572,7 +19596,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C134">
         <v>4</v>
@@ -19715,7 +19739,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C135">
         <v>2</v>
@@ -19858,7 +19882,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C136">
         <v>2</v>
@@ -20001,7 +20025,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -20144,7 +20168,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C138">
         <v>2</v>
@@ -20287,7 +20311,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C139">
         <v>4</v>
@@ -20430,7 +20454,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -20573,7 +20597,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -20716,7 +20740,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C142">
         <v>6</v>
@@ -20859,7 +20883,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -21002,7 +21026,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -21145,7 +21169,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C145">
         <v>2</v>
@@ -21288,7 +21312,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C146">
         <v>7</v>
@@ -21431,7 +21455,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C147">
         <v>4</v>
@@ -21574,7 +21598,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C148">
         <v>8</v>
@@ -21717,7 +21741,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C149">
         <v>4</v>
@@ -21860,7 +21884,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C150">
         <v>7</v>
@@ -22003,7 +22027,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -22146,7 +22170,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C152">
         <v>6</v>
@@ -22289,7 +22313,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C153">
         <v>7</v>
@@ -22432,7 +22456,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C154">
         <v>4</v>
@@ -22575,7 +22599,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C155">
         <v>2</v>
@@ -22718,7 +22742,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C156">
         <v>8</v>
@@ -22861,7 +22885,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C157">
         <v>7</v>
@@ -23004,7 +23028,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C158">
         <v>6</v>
@@ -23147,7 +23171,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C159">
         <v>3</v>
@@ -23290,7 +23314,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C160">
         <v>4</v>
@@ -23433,7 +23457,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -23576,7 +23600,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C162">
         <v>2</v>
@@ -23719,7 +23743,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -23862,7 +23886,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C164">
         <v>2</v>
@@ -24005,7 +24029,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C165">
         <v>6</v>
@@ -24148,7 +24172,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C166">
         <v>4</v>
@@ -24291,7 +24315,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -24434,7 +24458,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C168">
         <v>7</v>
@@ -24577,7 +24601,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C169">
         <v>6</v>
@@ -24720,7 +24744,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C170">
         <v>7</v>
@@ -24863,7 +24887,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C171">
         <v>4</v>
@@ -25006,7 +25030,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C172">
         <v>3</v>
@@ -25149,7 +25173,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C173">
         <v>2</v>
@@ -25292,7 +25316,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C174">
         <v>5</v>
@@ -25435,7 +25459,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -25578,7 +25602,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -25721,7 +25745,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C177">
         <v>2</v>
@@ -25864,7 +25888,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C178">
         <v>9</v>
@@ -26007,7 +26031,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C179">
         <v>3</v>
@@ -26150,7 +26174,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C180">
         <v>2</v>
@@ -26293,7 +26317,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -26436,7 +26460,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C182">
         <v>4</v>
@@ -26579,7 +26603,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C183">
         <v>6</v>
@@ -26722,7 +26746,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C184">
         <v>2</v>
@@ -26865,7 +26889,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C185">
         <v>6</v>
@@ -27008,7 +27032,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C186">
         <v>6</v>
@@ -27151,7 +27175,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C187">
         <v>4</v>
@@ -27294,7 +27318,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C188">
         <v>6</v>
@@ -27437,7 +27461,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -27580,7 +27604,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C190">
         <v>2</v>
@@ -27723,7 +27747,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C191">
         <v>9</v>
@@ -27866,7 +27890,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C192">
         <v>2</v>
@@ -28009,7 +28033,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C193">
         <v>5</v>
@@ -28152,7 +28176,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C194">
         <v>4</v>
@@ -28295,7 +28319,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -28438,7 +28462,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -28581,7 +28605,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C197">
         <v>6</v>
@@ -28724,7 +28748,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C198">
         <v>2</v>
@@ -28867,7 +28891,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -29010,7 +29034,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C200">
         <v>2</v>
@@ -29153,7 +29177,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -29296,7 +29320,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C202">
         <v>9</v>
@@ -29439,7 +29463,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -29582,7 +29606,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C204">
         <v>7</v>
@@ -29725,7 +29749,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C205">
         <v>6</v>
@@ -29868,7 +29892,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C206">
         <v>2</v>
@@ -30011,7 +30035,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C207">
         <v>5</v>
@@ -30154,7 +30178,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C208">
         <v>9</v>
@@ -30297,7 +30321,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C209">
         <v>5</v>
@@ -30440,7 +30464,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C210">
         <v>9</v>
@@ -30583,7 +30607,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C211">
         <v>8</v>
@@ -30726,7 +30750,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C212">
         <v>5</v>
@@ -30869,7 +30893,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C213">
         <v>3</v>
@@ -31012,7 +31036,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C214">
         <v>2</v>
@@ -31155,7 +31179,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C215">
         <v>4</v>
@@ -31298,7 +31322,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C216">
         <v>6</v>
@@ -31441,7 +31465,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C217">
         <v>2</v>
@@ -31584,7 +31608,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C218">
         <v>2</v>
@@ -31727,7 +31751,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C219">
         <v>2</v>
@@ -31870,7 +31894,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C220">
         <v>9</v>
@@ -32013,7 +32037,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C221">
         <v>4</v>
@@ -32156,7 +32180,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -32299,7 +32323,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C223">
         <v>6</v>
@@ -32442,7 +32466,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -32585,7 +32609,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -32728,7 +32752,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C226">
         <v>4</v>
@@ -32871,7 +32895,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -33014,7 +33038,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C228">
         <v>7</v>
@@ -33157,7 +33181,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C229">
         <v>3</v>
@@ -33300,7 +33324,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C230">
         <v>7</v>
@@ -33443,7 +33467,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C231">
         <v>8</v>
@@ -33586,7 +33610,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -33729,7 +33753,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C233">
         <v>8</v>
@@ -33872,7 +33896,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C234">
         <v>6</v>
@@ -34015,7 +34039,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C235">
         <v>2</v>
@@ -34158,7 +34182,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C236">
         <v>4</v>
@@ -34301,7 +34325,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C237">
         <v>4</v>
@@ -34444,7 +34468,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C238">
         <v>5</v>
@@ -34587,7 +34611,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -34730,7 +34754,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -34873,7 +34897,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C241">
         <v>5</v>
@@ -35016,7 +35040,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C242">
         <v>5</v>
@@ -35159,7 +35183,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -35302,7 +35326,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C244">
         <v>4</v>
@@ -35445,7 +35469,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C245">
         <v>3</v>
@@ -35588,7 +35612,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C246">
         <v>2</v>
@@ -35731,7 +35755,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C247">
         <v>8</v>
@@ -35874,7 +35898,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C248">
         <v>3</v>
@@ -36017,7 +36041,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C249">
         <v>4</v>
@@ -36160,7 +36184,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C250">
         <v>6</v>
@@ -36303,7 +36327,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C251">
         <v>5</v>
@@ -36446,7 +36470,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C252">
         <v>9</v>
@@ -36589,7 +36613,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C253">
         <v>6</v>
@@ -36732,7 +36756,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C254">
         <v>4</v>
@@ -36875,7 +36899,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -37018,7 +37042,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C256">
         <v>4</v>
@@ -37161,7 +37185,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C257">
         <v>3</v>
@@ -37304,7 +37328,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C258">
         <v>8</v>
@@ -37447,7 +37471,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C259">
         <v>3</v>
@@ -37590,7 +37614,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C260">
         <v>2</v>
@@ -37733,7 +37757,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C261">
         <v>9</v>
@@ -37876,7 +37900,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -38019,7 +38043,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C263">
         <v>8</v>
@@ -38162,7 +38186,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C264">
         <v>7</v>
@@ -38305,7 +38329,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -38448,7 +38472,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C266">
         <v>6</v>
@@ -38591,7 +38615,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C267">
         <v>5</v>
@@ -38734,7 +38758,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C268">
         <v>9</v>
@@ -38877,7 +38901,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C269">
         <v>4</v>
@@ -39020,7 +39044,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C270">
         <v>2</v>
@@ -39163,7 +39187,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C271">
         <v>9</v>
@@ -39306,7 +39330,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C272">
         <v>9</v>
@@ -39449,7 +39473,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C273">
         <v>8</v>
@@ -39592,7 +39616,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C274">
         <v>4</v>
@@ -39735,7 +39759,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C275">
         <v>7</v>
@@ -39878,7 +39902,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C276">
         <v>5</v>
@@ -40021,7 +40045,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C277">
         <v>4</v>
@@ -40164,7 +40188,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C278">
         <v>8</v>
@@ -40307,7 +40331,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -40450,7 +40474,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C280">
         <v>8</v>
@@ -40593,7 +40617,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C281">
         <v>3</v>
@@ -40736,7 +40760,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C282">
         <v>4</v>
@@ -40879,7 +40903,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C283">
         <v>7</v>
@@ -41022,7 +41046,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C284">
         <v>3</v>
@@ -41165,7 +41189,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C285">
         <v>4</v>
@@ -41308,7 +41332,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C286">
         <v>7</v>
@@ -41451,7 +41475,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C287">
         <v>4</v>
@@ -41594,7 +41618,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C288">
         <v>2</v>
@@ -41737,7 +41761,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C289">
         <v>2</v>
@@ -41880,7 +41904,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C290">
         <v>2</v>
@@ -42023,7 +42047,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -42166,7 +42190,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C292">
         <v>4</v>
@@ -42309,7 +42333,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C293">
         <v>2</v>
@@ -42452,7 +42476,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -42595,7 +42619,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C295">
         <v>2</v>
@@ -42738,7 +42762,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C296">
         <v>2</v>
@@ -42881,7 +42905,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C297">
         <v>4</v>
@@ -43024,7 +43048,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -43167,7 +43191,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -43310,7 +43334,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C300">
         <v>2</v>
@@ -43453,7 +43477,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C301">
         <v>5</v>
@@ -43596,7 +43620,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C302">
         <v>2</v>
@@ -43739,7 +43763,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -43882,7 +43906,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C304">
         <v>2</v>
@@ -44025,7 +44049,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C305">
         <v>2</v>
@@ -44168,7 +44192,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C306">
         <v>6</v>
@@ -44311,7 +44335,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C307">
         <v>9</v>
@@ -44454,7 +44478,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C308">
         <v>8</v>
@@ -44597,7 +44621,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C309">
         <v>9</v>
@@ -44740,7 +44764,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -44883,7 +44907,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C311">
         <v>2</v>
@@ -45026,7 +45050,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C312">
         <v>4</v>
@@ -45169,7 +45193,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C313">
         <v>7</v>
@@ -45312,7 +45336,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C314">
         <v>8</v>
@@ -45455,7 +45479,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C315">
         <v>2</v>
@@ -45598,7 +45622,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C316">
         <v>2</v>
@@ -45741,7 +45765,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C317">
         <v>6</v>
@@ -45884,7 +45908,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C318">
         <v>4</v>
@@ -46027,7 +46051,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C319">
         <v>5</v>
@@ -46170,7 +46194,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C320">
         <v>7</v>
@@ -46313,7 +46337,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -46456,7 +46480,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C322">
         <v>4</v>
@@ -46599,7 +46623,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C323">
         <v>1</v>
@@ -46742,7 +46766,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C324">
         <v>4</v>
@@ -46885,7 +46909,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C325">
         <v>2</v>
@@ -47028,7 +47052,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C326">
         <v>5</v>
@@ -47171,7 +47195,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C327">
         <v>2</v>
@@ -47314,7 +47338,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C328">
         <v>2</v>
@@ -47457,7 +47481,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C329">
         <v>4</v>
@@ -47600,7 +47624,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C330">
         <v>2</v>
@@ -47743,7 +47767,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C331">
         <v>2</v>
@@ -47886,7 +47910,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C332">
         <v>1</v>
@@ -48029,7 +48053,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C333">
         <v>2</v>
@@ -48172,7 +48196,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C334">
         <v>2</v>
@@ -48315,7 +48339,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C335">
         <v>1</v>
@@ -48458,7 +48482,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C336">
         <v>6</v>
@@ -48601,7 +48625,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C337">
         <v>4</v>
@@ -48744,7 +48768,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C338">
         <v>8</v>
@@ -48887,7 +48911,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C339">
         <v>2</v>
@@ -49030,7 +49054,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C340">
         <v>6</v>
@@ -49173,7 +49197,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C341">
         <v>5</v>
@@ -49316,7 +49340,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C342">
         <v>7</v>
@@ -49459,7 +49483,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C343">
         <v>4</v>
@@ -49602,7 +49626,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C344">
         <v>7</v>
@@ -49745,7 +49769,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -49888,7 +49912,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C346">
         <v>9</v>
@@ -50031,7 +50055,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C347">
         <v>9</v>
@@ -50174,7 +50198,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C348">
         <v>2</v>
@@ -50317,7 +50341,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C349">
         <v>4</v>
@@ -50460,7 +50484,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C350">
         <v>6</v>
@@ -50603,7 +50627,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C351">
         <v>2</v>
@@ -50746,7 +50770,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C352">
         <v>9</v>
@@ -50889,7 +50913,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C353">
         <v>4</v>
@@ -51032,7 +51056,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C354">
         <v>6</v>
@@ -51175,7 +51199,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -51318,7 +51342,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C356">
         <v>3</v>
@@ -51461,7 +51485,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C357">
         <v>7</v>
@@ -51604,7 +51628,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -51747,7 +51771,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C359">
         <v>4</v>
@@ -51890,7 +51914,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C360">
         <v>1</v>
@@ -52033,7 +52057,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -52176,7 +52200,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C362">
         <v>4</v>
@@ -52319,7 +52343,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C363">
         <v>2</v>
@@ -52462,7 +52486,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C364">
         <v>6</v>
@@ -52605,7 +52629,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C365">
         <v>4</v>
@@ -52748,7 +52772,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C366">
         <v>8</v>
@@ -52891,7 +52915,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C367">
         <v>2</v>
@@ -53034,7 +53058,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C368">
         <v>8</v>
@@ -53177,7 +53201,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C369">
         <v>9</v>
@@ -53320,7 +53344,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C370">
         <v>1</v>
@@ -53463,7 +53487,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C371">
         <v>6</v>
@@ -53606,7 +53630,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -53749,7 +53773,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -53892,7 +53916,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C374">
         <v>5</v>
@@ -54035,7 +54059,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C375">
         <v>6</v>
@@ -54178,7 +54202,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C376">
         <v>3</v>
@@ -54321,7 +54345,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C377">
         <v>4</v>
@@ -54464,7 +54488,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C378">
         <v>8</v>
@@ -54607,7 +54631,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C379">
         <v>7</v>
@@ -54750,7 +54774,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C380">
         <v>1</v>
@@ -54893,7 +54917,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C381">
         <v>6</v>
@@ -55036,7 +55060,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C382">
         <v>9</v>
@@ -55179,7 +55203,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C383">
         <v>3</v>
@@ -55322,7 +55346,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C384">
         <v>1</v>
@@ -55465,7 +55489,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C385">
         <v>5</v>
@@ -55608,7 +55632,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C386">
         <v>8</v>
@@ -55751,7 +55775,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C387">
         <v>5</v>
@@ -55894,7 +55918,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C388">
         <v>2</v>
@@ -56037,7 +56061,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C389">
         <v>9</v>
@@ -56180,7 +56204,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C390">
         <v>2</v>
@@ -56323,7 +56347,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C391">
         <v>4</v>
@@ -56466,7 +56490,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C392">
         <v>4</v>
@@ -56609,7 +56633,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C393">
         <v>9</v>
@@ -56752,7 +56776,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C394">
         <v>8</v>
@@ -56895,7 +56919,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C395">
         <v>8</v>
@@ -57038,7 +57062,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C396">
         <v>5</v>
@@ -57181,7 +57205,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C397">
         <v>2</v>
@@ -57324,7 +57348,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C398">
         <v>7</v>
@@ -57467,7 +57491,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C399">
         <v>1</v>
@@ -57610,7 +57634,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C400">
         <v>1</v>
@@ -57753,7 +57777,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C401">
         <v>2</v>
@@ -57896,7 +57920,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C402">
         <v>6</v>
@@ -58039,7 +58063,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C403">
         <v>9</v>
@@ -58182,7 +58206,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C404">
         <v>4</v>
@@ -58325,7 +58349,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C405">
         <v>5</v>
@@ -58468,7 +58492,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C406">
         <v>5</v>
@@ -58611,7 +58635,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -58754,7 +58778,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C408">
         <v>6</v>
@@ -58897,7 +58921,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -59040,7 +59064,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -59183,7 +59207,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C411">
         <v>4</v>
@@ -59326,7 +59350,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C412">
         <v>4</v>
@@ -59469,7 +59493,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C413">
         <v>2</v>
@@ -59612,7 +59636,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C414">
         <v>2</v>
@@ -59755,7 +59779,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C415">
         <v>3</v>
@@ -59898,7 +59922,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C416">
         <v>2</v>
@@ -60041,7 +60065,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C417">
         <v>7</v>
@@ -60184,7 +60208,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C418">
         <v>3</v>
@@ -60327,7 +60351,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C419">
         <v>6</v>
@@ -60470,7 +60494,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C420">
         <v>3</v>
@@ -60613,7 +60637,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -60756,7 +60780,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C422">
         <v>7</v>
@@ -60899,7 +60923,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C423">
         <v>3</v>
@@ -61042,7 +61066,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C424">
         <v>8</v>
@@ -61185,7 +61209,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C425">
         <v>6</v>
@@ -61328,7 +61352,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C426">
         <v>5</v>
@@ -61471,7 +61495,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C427">
         <v>6</v>
@@ -61614,7 +61638,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C428">
         <v>7</v>
@@ -61757,7 +61781,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C429">
         <v>9</v>
@@ -61900,7 +61924,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C430">
         <v>3</v>
@@ -62043,7 +62067,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C431">
         <v>2</v>
@@ -62186,7 +62210,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C432">
         <v>5</v>
@@ -62329,7 +62353,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C433">
         <v>6</v>
@@ -62472,7 +62496,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C434">
         <v>7</v>
@@ -62615,7 +62639,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C435">
         <v>1</v>
@@ -62758,7 +62782,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C436">
         <v>9</v>
@@ -62901,7 +62925,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C437">
         <v>5</v>
@@ -63044,7 +63068,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -63187,7 +63211,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -63330,7 +63354,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C440">
         <v>8</v>
@@ -63473,7 +63497,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C441">
         <v>8</v>
@@ -63616,7 +63640,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C442">
         <v>5</v>
@@ -63759,7 +63783,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C443">
         <v>3</v>
@@ -63902,7 +63926,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -64045,7 +64069,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C445">
         <v>7</v>
@@ -64188,7 +64212,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C446">
         <v>9</v>
@@ -64331,7 +64355,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C447">
         <v>6</v>
@@ -64474,7 +64498,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C448">
         <v>2</v>
@@ -64617,7 +64641,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C449">
         <v>6</v>
@@ -64760,7 +64784,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C450">
         <v>6</v>
@@ -64903,7 +64927,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C451">
         <v>3</v>
@@ -65046,7 +65070,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C452">
         <v>8</v>
@@ -65189,7 +65213,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C453">
         <v>5</v>
@@ -65332,7 +65356,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C454">
         <v>3</v>
@@ -65475,7 +65499,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C455">
         <v>3</v>
@@ -65618,7 +65642,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C456">
         <v>6</v>
@@ -65761,7 +65785,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C457">
         <v>6</v>
@@ -65904,7 +65928,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C458">
         <v>6</v>
@@ -66047,7 +66071,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C459">
         <v>6</v>
@@ -66190,7 +66214,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C460">
         <v>9</v>
@@ -66333,7 +66357,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C461">
         <v>6</v>
@@ -66476,7 +66500,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -66619,7 +66643,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C463">
         <v>6</v>
@@ -66762,7 +66786,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -66905,7 +66929,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C465">
         <v>5</v>
@@ -67048,7 +67072,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C466">
         <v>1</v>
@@ -67191,7 +67215,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C467">
         <v>8</v>
@@ -67334,7 +67358,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C468">
         <v>6</v>
@@ -67477,7 +67501,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C469">
         <v>5</v>
@@ -67620,7 +67644,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C470">
         <v>6</v>
@@ -67763,7 +67787,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C471">
         <v>5</v>
@@ -67906,7 +67930,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C472">
         <v>1</v>
@@ -68049,7 +68073,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C473">
         <v>5</v>
@@ -68192,7 +68216,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C474">
         <v>1</v>
@@ -68335,7 +68359,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -68478,7 +68502,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -68621,7 +68645,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C477">
         <v>8</v>
@@ -68764,7 +68788,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C478">
         <v>7</v>
@@ -68907,7 +68931,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C479">
         <v>8</v>
@@ -69050,7 +69074,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C480">
         <v>5</v>
@@ -69193,7 +69217,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C481">
         <v>8</v>
@@ -69336,7 +69360,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C482">
         <v>5</v>
@@ -69479,7 +69503,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C483">
         <v>9</v>
@@ -69622,7 +69646,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C484">
         <v>6</v>
@@ -69765,7 +69789,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C485">
         <v>6</v>
@@ -69908,7 +69932,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C486">
         <v>8</v>
@@ -70051,7 +70075,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C487">
         <v>6</v>
@@ -70194,7 +70218,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C488">
         <v>6</v>
@@ -70337,7 +70361,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C489">
         <v>9</v>
@@ -70480,7 +70504,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C490">
         <v>5</v>
@@ -70623,7 +70647,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C491">
         <v>5</v>
@@ -70766,7 +70790,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C492">
         <v>6</v>
@@ -70909,7 +70933,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C493">
         <v>3</v>
@@ -71052,7 +71076,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C494">
         <v>5</v>
@@ -71195,7 +71219,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C495">
         <v>6</v>
@@ -71338,7 +71362,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C496">
         <v>3</v>
@@ -71481,7 +71505,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C497">
         <v>8</v>
@@ -71624,7 +71648,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C498">
         <v>3</v>
@@ -71767,7 +71791,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C499">
         <v>3</v>
@@ -71910,7 +71934,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C500">
         <v>3</v>
@@ -72053,7 +72077,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C501">
         <v>4</v>
@@ -72196,7 +72220,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C502">
         <v>9</v>
@@ -72339,7 +72363,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C503">
         <v>6</v>
@@ -72482,7 +72506,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C504">
         <v>3</v>
@@ -72625,7 +72649,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C505">
         <v>3</v>
@@ -72768,7 +72792,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C506">
         <v>5</v>
@@ -72911,7 +72935,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C507">
         <v>5</v>
@@ -73054,7 +73078,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C508">
         <v>6</v>
@@ -73197,7 +73221,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C509">
         <v>6</v>
@@ -73340,7 +73364,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C510">
         <v>3</v>
@@ -73483,7 +73507,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C511">
         <v>9</v>
@@ -73626,7 +73650,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C512">
         <v>9</v>
@@ -73769,7 +73793,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C513">
         <v>9</v>
@@ -73912,7 +73936,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C514">
         <v>6</v>
@@ -74055,7 +74079,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C515">
         <v>5</v>
@@ -74198,7 +74222,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C516">
         <v>8</v>
@@ -74341,7 +74365,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C517">
         <v>3</v>
@@ -74484,7 +74508,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C518">
         <v>8</v>
@@ -74627,7 +74651,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C519">
         <v>8</v>
@@ -74770,7 +74794,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C520">
         <v>5</v>
@@ -74913,7 +74937,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C521">
         <v>9</v>
@@ -75056,7 +75080,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C522">
         <v>6</v>
@@ -75199,7 +75223,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C523">
         <v>6</v>
@@ -75342,7 +75366,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C524">
         <v>8</v>
@@ -75485,7 +75509,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C525">
         <v>5</v>
@@ -75628,7 +75652,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C526">
         <v>6</v>
@@ -75771,7 +75795,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C527">
         <v>6</v>
@@ -75914,7 +75938,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C528">
         <v>3</v>
@@ -76057,7 +76081,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C529">
         <v>8</v>
@@ -76200,7 +76224,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C530">
         <v>3</v>
@@ -76343,7 +76367,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C531">
         <v>5</v>
@@ -76486,7 +76510,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C532">
         <v>6</v>
@@ -76629,7 +76653,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C533">
         <v>6</v>
@@ -76772,7 +76796,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C534">
         <v>6</v>
@@ -76915,7 +76939,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C535">
         <v>2</v>
@@ -77058,7 +77082,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C536">
         <v>9</v>
@@ -77201,7 +77225,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C537">
         <v>9</v>
@@ -77344,7 +77368,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C538">
         <v>5</v>
@@ -77487,7 +77511,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C539">
         <v>5</v>
@@ -77630,7 +77654,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C540">
         <v>9</v>
@@ -77773,7 +77797,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C541">
         <v>9</v>
@@ -77916,7 +77940,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C542">
         <v>5</v>
@@ -78059,7 +78083,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C543">
         <v>5</v>
@@ -78202,7 +78226,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C544">
         <v>9</v>
@@ -78345,7 +78369,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C545">
         <v>5</v>
@@ -78488,7 +78512,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C546">
         <v>3</v>
@@ -78631,7 +78655,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C547">
         <v>5</v>
@@ -78774,7 +78798,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C548">
         <v>5</v>
@@ -78917,7 +78941,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C549">
         <v>5</v>
@@ -79060,7 +79084,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C550">
         <v>5</v>
@@ -79203,7 +79227,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C551">
         <v>3</v>
@@ -79346,7 +79370,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C552">
         <v>9</v>
@@ -79489,7 +79513,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C553">
         <v>5</v>
@@ -79632,7 +79656,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C554">
         <v>5</v>
@@ -79775,7 +79799,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C555">
         <v>9</v>
@@ -79918,7 +79942,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C556">
         <v>5</v>
@@ -80061,7 +80085,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C557">
         <v>5</v>
@@ -80204,7 +80228,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C558">
         <v>9</v>
@@ -80347,7 +80371,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C559">
         <v>3</v>
@@ -80490,7 +80514,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C560">
         <v>5</v>
@@ -80633,7 +80657,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C561">
         <v>5</v>
@@ -80776,7 +80800,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C562">
         <v>3</v>
@@ -80919,7 +80943,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C563">
         <v>5</v>
@@ -81062,7 +81086,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C564">
         <v>5</v>
@@ -81205,7 +81229,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C565">
         <v>9</v>
@@ -81348,7 +81372,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C566">
         <v>3</v>
@@ -81491,7 +81515,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C567">
         <v>3</v>
@@ -81634,7 +81658,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C568">
         <v>3</v>
@@ -81777,7 +81801,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C569">
         <v>5</v>
@@ -81920,7 +81944,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C570">
         <v>5</v>
@@ -82063,7 +82087,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C571">
         <v>3</v>
@@ -82206,7 +82230,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C572">
         <v>6</v>
@@ -82349,7 +82373,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C573">
         <v>5</v>
@@ -82492,7 +82516,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C574">
         <v>5</v>
@@ -82635,7 +82659,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C575">
         <v>5</v>
@@ -82778,7 +82802,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C576">
         <v>5</v>
@@ -82921,7 +82945,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C577">
         <v>5</v>
@@ -83064,7 +83088,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C578">
         <v>5</v>
@@ -83207,7 +83231,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C579">
         <v>5</v>
@@ -83350,7 +83374,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C580">
         <v>5</v>
@@ -83493,7 +83517,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C581">
         <v>5</v>
@@ -83636,7 +83660,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C582">
         <v>2</v>
@@ -83779,7 +83803,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C583">
         <v>5</v>
@@ -83922,7 +83946,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C584">
         <v>5</v>
@@ -84065,7 +84089,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C585">
         <v>5</v>
@@ -84208,7 +84232,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C586">
         <v>5</v>
@@ -84351,7 +84375,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C587">
         <v>5</v>
@@ -84494,7 +84518,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C588">
         <v>5</v>
@@ -84637,7 +84661,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C589">
         <v>5</v>
@@ -84780,7 +84804,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C590">
         <v>5</v>
@@ -84923,7 +84947,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C591">
         <v>5</v>
@@ -85066,7 +85090,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C592">
         <v>5</v>
@@ -85209,7 +85233,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C593">
         <v>5</v>
@@ -85352,7 +85376,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C594">
         <v>5</v>
@@ -85495,7 +85519,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C595">
         <v>5</v>
@@ -85638,7 +85662,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C596">
         <v>5</v>
@@ -85781,7 +85805,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C597">
         <v>5</v>
@@ -85924,7 +85948,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C598">
         <v>5</v>
@@ -86067,7 +86091,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C599">
         <v>5</v>
@@ -86210,7 +86234,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C600">
         <v>5</v>
@@ -86353,7 +86377,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C601">
         <v>5</v>
@@ -86496,7 +86520,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C602">
         <v>5</v>
@@ -86639,7 +86663,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C603">
         <v>5</v>
@@ -86782,7 +86806,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C604">
         <v>5</v>
